--- a/Accuracies.xlsx
+++ b/Accuracies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>BINARY</t>
   </si>
@@ -96,54 +96,12 @@
     <t>MULTICLASS</t>
   </si>
   <si>
-    <t>VSVM_SL_rem_extrem</t>
-  </si>
-  <si>
-    <t>VSVM_SL_kern2eucl</t>
-  </si>
-  <si>
-    <t>VSVM_SL_rem_extrem_kerneldist</t>
-  </si>
-  <si>
-    <t>0.7054</t>
-  </si>
-  <si>
-    <t>0.5996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6238 </t>
-  </si>
-  <si>
-    <t>0.5053</t>
-  </si>
-  <si>
-    <t>0.6238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6723 </t>
-  </si>
-  <si>
-    <t>0.4067</t>
-  </si>
-  <si>
-    <t>0.7324</t>
-  </si>
-  <si>
-    <t>0.6338</t>
-  </si>
-  <si>
     <t>0.7368</t>
   </si>
   <si>
     <t>0.6353</t>
   </si>
   <si>
-    <t>0.7105</t>
-  </si>
-  <si>
-    <t>0.6047</t>
-  </si>
-  <si>
     <t>S3VSVM</t>
   </si>
   <si>
@@ -310,6 +268,39 @@
   </si>
   <si>
     <t>68.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7432 </t>
+  </si>
+  <si>
+    <t>0.6455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7193 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6131     </t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.5962</t>
+  </si>
+  <si>
+    <t>VSVM_SL_Un_b_mclp</t>
+  </si>
+  <si>
+    <t>0.7468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6481   </t>
+  </si>
+  <si>
+    <t>0.7182</t>
+  </si>
+  <si>
+    <t>0.6112</t>
   </si>
 </sst>
 </file>
@@ -333,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,29 +461,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,6 +483,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +783,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,43 +799,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -854,12 +856,12 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -880,140 +882,134 @@
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
@@ -1022,10 +1018,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3"/>
@@ -1034,438 +1030,438 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="17"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D32" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="17" t="s">
-        <v>44</v>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>54</v>
+      <c r="B44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A42:H42"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Accuracies.xlsx
+++ b/Accuracies.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="COLOGNE SCALE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
   <si>
     <t>BINARY</t>
   </si>
@@ -252,24 +252,6 @@
     <t>60.35</t>
   </si>
   <si>
-    <t>60.68</t>
-  </si>
-  <si>
-    <t>70.39</t>
-  </si>
-  <si>
-    <t>65.73</t>
-  </si>
-  <si>
-    <t>74.58</t>
-  </si>
-  <si>
-    <t>76.89</t>
-  </si>
-  <si>
-    <t>68.46</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.7432 </t>
   </si>
   <si>
@@ -301,6 +283,48 @@
   </si>
   <si>
     <t>0.6112</t>
+  </si>
+  <si>
+    <t>92.11 (±2.11)</t>
+  </si>
+  <si>
+    <t>77.53 (±5.14)</t>
+  </si>
+  <si>
+    <t>71.76 (±8.87)</t>
+  </si>
+  <si>
+    <t>89.12 (±4.61)</t>
+  </si>
+  <si>
+    <t>72.29 (±8.24)</t>
+  </si>
+  <si>
+    <t>89.35 (±4.03)</t>
+  </si>
+  <si>
+    <t>75.77 (±3.24)</t>
+  </si>
+  <si>
+    <t>67.25 (±3.94)</t>
+  </si>
+  <si>
+    <t>66.09 (±3.05)</t>
+  </si>
+  <si>
+    <t>74.77 (±2.46)</t>
+  </si>
+  <si>
+    <t>72.73 (±3.78)</t>
+  </si>
+  <si>
+    <t>63.49 (±4.62)</t>
+  </si>
+  <si>
+    <t>Invariance to object SCALE, number of samples: 200 (40 per class)</t>
+  </si>
+  <si>
+    <t>Invariance to object SCALE, number of samples per class: 25; unlabeled samples : 30</t>
   </si>
 </sst>
 </file>
@@ -483,6 +507,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,11 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +807,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,16 +823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -887,16 +911,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -913,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>8</v>
@@ -921,26 +945,26 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>87</v>
+      <c r="F8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -949,48 +973,53 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="H9" s="4"/>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1012,9 +1041,15 @@
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1024,25 +1059,31 @@
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1061,21 +1102,21 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="B20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1083,42 +1124,47 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="15"/>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1191,16 +1237,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -1217,29 +1263,31 @@
         <v>6</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H31" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -1271,28 +1319,28 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -1365,16 +1413,16 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
@@ -1397,23 +1445,23 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27" t="s">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23" t="s">
         <v>39</v>
       </c>
       <c r="H44" s="14" t="s">
@@ -1451,6 +1499,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A42:H42"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A25:H25"/>
@@ -1459,9 +1510,6 @@
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Accuracies.xlsx
+++ b/Accuracies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>BINARY</t>
   </si>
@@ -102,12 +102,6 @@
     <t>0.6353</t>
   </si>
   <si>
-    <t>S3VSVM</t>
-  </si>
-  <si>
-    <t>MSc Thesis Ozan</t>
-  </si>
-  <si>
     <t>60.91 (± 3.97)</t>
   </si>
   <si>
@@ -325,6 +319,15 @@
   </si>
   <si>
     <t>Invariance to object SCALE, number of samples per class: 25; unlabeled samples : 30</t>
+  </si>
+  <si>
+    <t>VSVM Paper</t>
+  </si>
+  <si>
+    <t>S3VSVM Paper</t>
+  </si>
+  <si>
+    <t>Ozan MSc Thesis</t>
   </si>
 </sst>
 </file>
@@ -485,17 +488,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -504,8 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -521,9 +519,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +807,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,43 +823,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -880,621 +880,623 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="13"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="15"/>
+      <c r="D21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="C45" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
